--- a/Excel_data/POC2DATASHEET.xlsx
+++ b/Excel_data/POC2DATASHEET.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Test case id</t>
   </si>
@@ -43,45 +43,15 @@
     <t>TC001</t>
   </si>
   <si>
-    <t>select Customer_Segment as'Customer Segment',Product_Category as 'Product Category',
-ROUND(sum(unit_Price),2) "Sum of Unit Price" from Superstoretesting
-group by Customer_Segment, Product_Category
-order by Customer_Segment, Product_Category asc</t>
-  </si>
-  <si>
-    <t>Dashboard data of Powe BI dashoard Testing 1 and  Database Qurry 1 data are matching</t>
-  </si>
-  <si>
     <t>TC002</t>
   </si>
   <si>
-    <t>Dashboard data of Powe BI dashoard Testing 2 and  Database Qurry 2 data are matching</t>
-  </si>
-  <si>
     <t>TC003</t>
   </si>
   <si>
-    <t>Compare the Dashboard data of Powe BI dashoard Testing 3 Vs Database Query 3 data</t>
-  </si>
-  <si>
-    <t>select Customer_Segment as 'Customer Segment',
-Product_Category as 'Product Category', 
-ROUND(sum(unit_Price),2) as 'Sum of Unit Price' 
-from Superstoretesting
-where Product_Category = 'Furniture'
-group by Customer_Segment, Product_Category
-order by Customer_Segment asc</t>
-  </si>
-  <si>
-    <t>Dashboard data of Powe BI dashoard Testing 3 and  Database Qurry 3 data are matching</t>
-  </si>
-  <si>
     <t>TC004</t>
   </si>
   <si>
-    <t>Compare the Dashboard data of Powe BI dashoard Testing 4 Vs Database Query 4  data</t>
-  </si>
-  <si>
     <t>Dashboard data of Powe BI dashoard Testing 4 and  Database Qurry 4 data are matching</t>
   </si>
   <si>
@@ -92,9 +62,6 @@
   </si>
   <si>
     <t>maheshchothve1997@gmail.com</t>
-  </si>
-  <si>
-    <t>Compare the Dashboard data of Powe BI dashoard Testing COURSE NAME Vs Database Query 1 data COURSENAME</t>
   </si>
   <si>
     <t>SELECT TOP (1000) 
@@ -102,18 +69,89 @@
   FROM [POC2].[dbo].[dim_institute]</t>
   </si>
   <si>
-    <t>Compare theInstitute name Dashboard data of Powe BI dashoard Testing 2 Vs Database Query 2 data</t>
+    <t>Compare the Dashboard data of Powe BI dashoard Testing Institute NAME Vs Database Query 1 data COURSENAME</t>
+  </si>
+  <si>
+    <t>Dashboard data of Powe BI dashoard Testing 1 and  Database Query 1 data are matching</t>
+  </si>
+  <si>
+    <t>Compare the Course name Dashboard data of Powe BI dashoard Testing 2 Vs Database Query 2 data</t>
+  </si>
+  <si>
+    <t>Dashboard data of Powe BI dashoard Testing 2 and  Database Query 2 data are matching</t>
+  </si>
+  <si>
+    <t>Compare the semister name Dashboard data of Powe BI dashoard Testing 3 Vs Database Query3 data</t>
+  </si>
+  <si>
+    <t>Dashboard data of Powe BI dashoard Testing 3 and  Database Query 3 data are matching</t>
+  </si>
+  <si>
+    <t>Compare the Subject name if course name= Computer Engineering  
+Sem=1
+Dashboard data of Powe BI dashoard Testing 4 Vs Database Query4 data</t>
+  </si>
+  <si>
+    <t>SELECT TOP (1000) 
+      [Subject_name]
+  FROM [POC2].[dbo].[Dim_Subject]
+  where course=20 AND sem=1 order by [Subject_name] asc;</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>Compare the  LECTURER name  if course name= Computer Engineering  
+Sem=1 and subject= Computer Engineering Dashboard data of Powe BI dashoard Testing 5 Vs Database Query5  data</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT TOP (1000)
+      [Lecturer_name]
+    FROM [POC2].[dbo].[dim_lecturer],[POC2].[dbo].[Dim_Subject]
+ WHERE  course=20 AND sem=1 AND [Subject_id]=112 AND [Lecturer_id]=22020212</t>
+  </si>
+  <si>
+    <t>Dashboard data of Powe BI dashoard Testing 5 and  Database Qurry 5 data are matching</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>Compare the Student name  if course name= Computer Engineering  
+Sem=1 and subject= Computer Engineering And lecturer is V.V. Marathe  Dashboard data of Powe BI dashoard Testing 6 Vs Database Query 6  data</t>
+  </si>
+  <si>
+    <t>SELECT TOP (1000) [Student_name]
+       FROM [POC2].[dbo].[dim_student]
+INNER JOIN  [POC2].[dbo].[fact_exam_new] 
+ON [dim_student].[Enrollment_No]=[fact_exam_new].[Enrollment_No] WHERE
+[Course_id]=20 AND [Subject_id]=112 ORDER BY Student_name asc</t>
+  </si>
+  <si>
+    <t>Dashboard data of Powe BI dashoard Testing 6 and  Database Qurry 6 data are matching</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>Compare the Year Dashboard data of Powe BI dashoard Testing 7 Vs Database Query 7 data</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT YEAR([Start_date]) AS Year FROM [POC2].[dbo].[fact_learning]</t>
+  </si>
+  <si>
+    <t>Dashboard data of Powe BI dashoard Testing 7 and  Database Qurry 7 data are matching</t>
   </si>
   <si>
     <t>SELECT TOP (1000)     [Course_name]
-  FROM [POC2].[dbo].[dim_course]</t>
+  FROM [POC2].[dbo].[dim_course] order by Course_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +181,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -164,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -244,17 +288,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -276,19 +309,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -350,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -367,10 +387,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -380,54 +400,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -710,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +748,7 @@
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.140625" style="10" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" customWidth="1"/>
-    <col min="5" max="5" width="72.5703125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="72.5703125" style="15" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -739,7 +765,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -751,72 +777,107 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="13"/>
-      <c r="H2" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="11"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -840,15 +901,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/Excel_data/POC2DATASHEET.xlsx
+++ b/Excel_data/POC2DATASHEET.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="138">
   <si>
     <t>Test case id</t>
   </si>
@@ -143,15 +143,533 @@
     <t>Dashboard data of Powe BI dashoard Testing 7 and  Database Qurry 7 data are matching</t>
   </si>
   <si>
-    <t>SELECT TOP (1000)     [Course_name]
-  FROM [POC2].[dbo].[dim_course] order by Course_name</t>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>Compare the marks obtained if student name =AditI M. Dashboard data of Powe BI dashoard Testing 8 Vs Database Query 8 data</t>
+  </si>
+  <si>
+    <t>SELECT TOP (1000)   [Marks_Obtained]
+    FROM [POC2].[dbo].[fact_exam_new],[POC2].[dbo].[dim_student]
+    WHERE [dim_student].[Enrollment_No]=[fact_exam_new].[Enrollment_No] AND
+[Course_id]=20 AND [Subject_id]=112 AND [fact_exam_new].[Enrollment_No] =22020007</t>
+  </si>
+  <si>
+    <t>Dashboard data of Powe BI dashoard Testing 8 and  Database Qurry 8 data are matching</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>Compare the marks obtained if student name =Aryan G Dashboard data of Powe BI dashoard Testing 9 Vs Database Query 9 data</t>
+  </si>
+  <si>
+    <t>SELECT [Marks_Obtained]
+    FROM [POC2].[dbo].[fact_exam_new],[POC2].[dbo].[dim_student]
+    WHERE [dim_student].[Enrollment_No]=[fact_exam_new].[Enrollment_No] AND
+[Course_id]=20 AND [Subject_id]=112 AND [fact_exam_new].[Enrollment_No] =22020009</t>
+  </si>
+  <si>
+    <t>Dashboard data of Powe BI dashoard Testing 9 and  Database Qurry 9 data are matching</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>Compare the marks obtained if student name =Diya D Dashboard data of Powe BI dashoard Testing 10 Vs Database Query10 data</t>
+  </si>
+  <si>
+    <t>SELECT [Marks_Obtained]
+    FROM [POC2].[dbo].[fact_exam_new],[POC2].[dbo].[dim_student]
+    WHERE [dim_student].[Enrollment_No]=[fact_exam_new].[Enrollment_No] AND
+[Course_id]=20 AND [Subject_id]=112 AND [fact_exam_new].[Enrollment_No] =22020010</t>
+  </si>
+  <si>
+    <t>Dashboard data of Powe BI dashoard Testing 10 and  Database Qurry 10 data are matching</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>Compare the marks obtained if student name =Kalyani K. Dashboard data of Powe BI dashoard Testing 11 Vs Database Query 11 data</t>
+  </si>
+  <si>
+    <t>SELECT [Marks_Obtained]
+    FROM [POC2].[dbo].[fact_exam_new],[POC2].[dbo].[dim_student]
+    WHERE [dim_student].[Enrollment_No]=[fact_exam_new].[Enrollment_No] AND
+[Course_id]=20 AND [Subject_id]=112 AND [fact_exam_new].[Enrollment_No] =22020006</t>
+  </si>
+  <si>
+    <t>Dashboard data of Powe BI dashoard Testing 11 and  Database Qurry 11 data are matching</t>
+  </si>
+  <si>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t>Compare the marks obtained if student name Sonia D. Dashboard data of Powe BI dashoard Testing 12 Vs Database Query 12 data</t>
+  </si>
+  <si>
+    <t>SELECT [Marks_Obtained]
+    FROM [POC2].[dbo].[fact_exam_new],[POC2].[dbo].[dim_student]
+    WHERE [dim_student].[Enrollment_No]=[fact_exam_new].[Enrollment_No] AND
+[Course_id]=20 AND [Subject_id]=112 AND [fact_exam_new].[Enrollment_No] =22020008</t>
+  </si>
+  <si>
+    <t>Dashboard data of Powe BI dashoard Testing 12 and  Database Qurry 12 data are matching</t>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t>Compare the Total marks OF all student  obtained   Dashboard data of Powe BI dashoard Testing 13 Vs Database Query 13 data</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT [Total_Marks]
+    FROM [POC2].[dbo].[fact_exam_new],[POC2].[dbo].[dim_student]
+    WHERE [dim_student].[Enrollment_No]=[fact_exam_new].[Enrollment_No] AND
+[Course_id]=20 AND [Subject_id]=112</t>
+  </si>
+  <si>
+    <t>Dashboard data of Powe BI dashoard Testing 13 and  Database Qurry 13 data are matching</t>
+  </si>
+  <si>
+    <t>TC014</t>
+  </si>
+  <si>
+    <t>Compare the marks Percentage OF  student name=Aditi M. obtained   Dashboard data of Powe BI dashoard Testing 14 Vs Database Query 14 data</t>
+  </si>
+  <si>
+    <t>SELECT [Marks_Obtained]*100/([Total_Marks]) as Percentage
+    FROM [POC2].[dbo].[fact_exam_new],[POC2].[dbo].[dim_student]
+    WHERE [dim_student].[Enrollment_No]=[fact_exam_new].[Enrollment_No] AND
+[Course_id]=20 AND [Subject_id]=112 AND [fact_exam_new].[Enrollment_No] =22020007</t>
+  </si>
+  <si>
+    <t>Dashboard data of Powe BI dashoard Testing 14 and  Database Qurry 14 data are matching</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>Compare the marks Percentage OF  student name=Aryan G. obtained   Dashboard data of Powe BI dashoard Testing 15 Vs Database Query 15 data</t>
+  </si>
+  <si>
+    <t>SELECT [Marks_Obtained]*100/([Total_Marks])
+    FROM [POC2].[dbo].[fact_exam_new],[POC2].[dbo].[dim_student]
+    WHERE [dim_student].[Enrollment_No]=[fact_exam_new].[Enrollment_No] AND
+[Course_id]=20 AND [Subject_id]=112 AND [fact_exam_new].[Enrollment_No] =22020009</t>
+  </si>
+  <si>
+    <t>Dashboard data of Powe BI dashoard Testing 15 and  Database Qurry 15 data are matching</t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t>Compare the marks Percentage OF  student name=Diya D. obtained   Dashboard data of Powe BI dashoard Testing 16 Vs Database Query 16 data</t>
+  </si>
+  <si>
+    <t>SELECT [Marks_Obtained]*100/([Total_Marks]) as Percentage
+    FROM [POC2].[dbo].[fact_exam_new],[POC2].[dbo].[dim_student]
+    WHERE [dim_student].[Enrollment_No]=[fact_exam_new].[Enrollment_No] AND
+[Course_id]=20 AND [Subject_id]=112 AND [fact_exam_new].[Enrollment_No] =22020010</t>
+  </si>
+  <si>
+    <t>Dashboard data of Powe BI dashoard Testing 16 and  Database Qurry 16 data are matching</t>
+  </si>
+  <si>
+    <t>TC017</t>
+  </si>
+  <si>
+    <t>Compare the marks Percentage OF  student name=Kalyani G. obtained   Dashboard data of Powe BI dashoard Testing 17 Vs Database Query 17 data</t>
+  </si>
+  <si>
+    <t>SELECT [Marks_Obtained]*100/([Total_Marks]) as Percentage
+    FROM [POC2].[dbo].[fact_exam_new],[POC2].[dbo].[dim_student]
+    WHERE [dim_student].[Enrollment_No]=[fact_exam_new].[Enrollment_No] AND
+[Course_id]=20 AND [Subject_id]=112 AND [fact_exam_new].[Enrollment_No] =22020006</t>
+  </si>
+  <si>
+    <t>Dashboard data of Powe BI dashoard Testing 17 and  Database Qurry 17 data are matching</t>
+  </si>
+  <si>
+    <t>TC018</t>
+  </si>
+  <si>
+    <t>Compare the marks Percentage OF  student name=Sonia D.obtained   Dashboard data of Powe BI dashoard Testing 18 Vs Database Query 18 data</t>
+  </si>
+  <si>
+    <t>SELECT [Marks_Obtained]*100/([Total_Marks]) 
+    FROM [POC2].[dbo].[fact_exam_new],[POC2].[dbo].[dim_student]
+    WHERE [dim_student].[Enrollment_No]=[fact_exam_new].[Enrollment_No] AND
+[Course_id]=20 AND [Subject_id]=112 AND [fact_exam_new].[Enrollment_No] =22020008</t>
+  </si>
+  <si>
+    <t>Dashboard data of Powe BI dashoard Testing 18 and  Database Qurry 18 data are matching</t>
+  </si>
+  <si>
+    <t>TC019</t>
+  </si>
+  <si>
+    <t>Compare the attendance Percentage OF  student name=Aditi M. obtained   Dashboard data of Powe BI dashoard Testing 19 Vs Database Query 19 data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DECLARE @TotalPrice  nvarchar(100)
+Set @TotalPrice =(SELECT COUNT([Attendance]) 
+    FROM [POC2].[dbo].[dim_student],[POC2].[dbo].[Fact_Attendance]
+    WHERE [dim_student].[Enrollment_No]=[Fact_Attendance].[Enrollment_No] AND
+[Course_id]=20 AND [Subject_id]=112 AND[Fact_Attendance].[Enrollment_No] =22020007 AND [Attendance]='P')
+SELECT ROUND(CAST(((@TotalPrice)*100.0)/150 AS FLOAT),2)</t>
+  </si>
+  <si>
+    <t>Dashboard data of Powe BI dashoard Testing 19 and  Database Qurry 19 data are matching</t>
+  </si>
+  <si>
+    <t>TC020</t>
+  </si>
+  <si>
+    <t>Compare the attendance Percentage OF  student name= Aryan G.obtained   Dashboard data of Powe BI dashoard Testing 20 Vs Database Query 20 data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DECLARE @TotalPrice  nvarchar(100)
+Set @TotalPrice =(SELECT COUNT([Attendance]) 
+    FROM [POC2].[dbo].[dim_student],[POC2].[dbo].[Fact_Attendance]
+    WHERE [dim_student].[Enrollment_No]=[Fact_Attendance].[Enrollment_No] AND
+[Course_id]=20 AND [Subject_id]=112 AND[Fact_Attendance].[Enrollment_No] =22020009 AND [Attendance]='P')
+SELECT ROUND(CAST(((@TotalPrice)*100.0)/150 AS FLOAT),2)</t>
+  </si>
+  <si>
+    <t>Dashboard data of Powe BI dashoard Testing 20 and  Database Query 20 data are matching</t>
+  </si>
+  <si>
+    <t>TC021</t>
+  </si>
+  <si>
+    <t>Compare the attendance Percentage OF  student name=Diya D.obtained   Dashboard data of Powe BI dashoard Testing 21 Vs Database Query 21 data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DECLARE @TotalPrice  nvarchar(100)
+Set @TotalPrice =(SELECT COUNT([Attendance]) 
+    FROM [POC2].[dbo].[dim_student],[POC2].[dbo].[Fact_Attendance]
+    WHERE [dim_student].[Enrollment_No]=[Fact_Attendance].[Enrollment_No] AND
+[Course_id]=20 AND [Subject_id]=112 AND[Fact_Attendance].[Enrollment_No] =22020010 AND [Attendance]='P')
+SELECT ROUND(CAST(((@TotalPrice)*100.0)/150 AS FLOAT),2)
+</t>
+  </si>
+  <si>
+    <t>Dashboard data of Powe BI dashoard Testing 21 and  Database Query 21 data are matching</t>
+  </si>
+  <si>
+    <t>TC022</t>
+  </si>
+  <si>
+    <t>Compare the attendance Percentage OF  student name=Kalyani K.obtained   Dashboard data of Powe BI dashoard Testing 22 Vs Database Query 22 data</t>
+  </si>
+  <si>
+    <t>DECLARE @TotalPrice  nvarchar(100)
+Set @TotalPrice =(SELECT COUNT([Attendance]) 
+    FROM [POC2].[dbo].[dim_student],[POC2].[dbo].[Fact_Attendance]
+    WHERE [dim_student].[Enrollment_No]=[Fact_Attendance].[Enrollment_No] AND
+[Course_id]=20 AND [Subject_id]=112 AND[Fact_Attendance].[Enrollment_No] =22020006 AND [Attendance]='P')
+SELECT ROUND(CAST(((@TotalPrice)*100.0)/150 AS FLOAT),2)</t>
+  </si>
+  <si>
+    <t>Dashboard data of Powe BI dashoard Testing 22 and  Database Query 22 data are matching</t>
+  </si>
+  <si>
+    <t>TC023</t>
+  </si>
+  <si>
+    <t>Compare the attendance Percentage OF  student name=Sania D.obtained   Dashboard data of Powe BI dashoard Testing 23 Vs Database Query 23 data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DECLARE @TotalPrice  nvarchar(100)
+Set @TotalPrice =(SELECT COUNT([Attendance]) 
+    FROM [POC2].[dbo].[dim_student],[POC2].[dbo].[Fact_Attendance]
+    WHERE [dim_student].[Enrollment_No]=[Fact_Attendance].[Enrollment_No] AND
+[Course_id]=20 AND [Subject_id]=112 AND[Fact_Attendance].[Enrollment_No] =22020008 AND [Attendance]='P')
+SELECT ROUND(CAST(((@TotalPrice)*100.0)/150 AS FLOAT),2)</t>
+  </si>
+  <si>
+    <t>Dashboard data of Powe BI dashoard Testing 23 and  Database Query 23 data are matching</t>
+  </si>
+  <si>
+    <t>DECLARE @Absent  nvarchar(100)
+Set @Absent=(SELECT COUNT(Attendance)   FROM [dim_student],[Fact_Attendance]
+    WHERE [dim_student].[Enrollment_No]=[Fact_Attendance].[Enrollment_No] AND
+     [Course_id]=20 AND [Subject_id]=112 AND[Fact_Attendance].[Enrollment_No] =22020007 AND Attendance='A')
+DECLARE @reason nvarchar(100)
+Set @reason=(SELECT  COUNT([Attendance_Remarks])
+    FROM [dim_student],[Fact_Attendance]
+    WHERE [dim_student].[Enrollment_No]=[Fact_Attendance].[Enrollment_No] AND
+     [Course_id]=20 AND [Subject_id]=112 AND[Fact_Attendance].[Enrollment_No] =22020007 AND
+      [Attendance_Remarks] in ('Personal','Health','Financial','Other')group by [Attendance_Remarks] )
+SELECT DISTINCT [Attendance_Remarks],ROUND(CAST(((@reason)*100.0)/@Absent AS FLOAT),2) AS Percentage
+ FROM [dim_student],[Fact_Attendance]
+    WHERE [dim_student].[Enrollment_No]=[Fact_Attendance].[Enrollment_No] AND
+     [Course_id]=20 AND [Subject_id]=112 AND [dim_student].[Enrollment_No] =22020007 AND [Attendance_Remarks]&lt;&gt;'Present'</t>
+  </si>
+  <si>
+    <t>SELECT  [Course_name]
+  FROM [POC2].[dbo].[dim_course] ORDER BY [Course_name]</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT [sem]
+  FROM [POC2].[dbo].[Dim_Subject]</t>
+  </si>
+  <si>
+    <t>TC024</t>
+  </si>
+  <si>
+    <t>Compare the Group of   student name=Aditi M. obtained   Dashboard data of Powe BI dashoard Testing 24 Vs Database Query 24 data</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT [Group_student]
+       FROM [POC2].[dbo].[fact_exam_new] ,
+  [POC2].[dbo].[dim_student] WHERE
+ [fact_exam_new].[Enrollment_No]=[dim_student].[Enrollment_No]
+ AND [Group_student]='I'</t>
+  </si>
+  <si>
+    <t>TC025</t>
+  </si>
+  <si>
+    <t>Compare the Group of   student name=Aryan G. obtained   Dashboard data of Powe BI dashoard Testing 25 Vs Database Query 25 data</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT [Group_student]
+       FROM [POC2].[dbo].[fact_exam_new] ,
+  [POC2].[dbo].[dim_student] WHERE
+ [fact_exam_new].[Enrollment_No]=[dim_student].[Enrollment_No]
+ AND [Group_student]='E'</t>
+  </si>
+  <si>
+    <t>TC026</t>
+  </si>
+  <si>
+    <t>Compare the Group of   student name=Diya D. obtained   Dashboard data of Powe BI dashoard Testing 26 Vs Database Query 26 data</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT [Group_student]
+       FROM [POC2].[dbo].[fact_exam_new] ,
+  [POC2].[dbo].[dim_student] WHERE
+ [fact_exam_new].[Enrollment_No]=[dim_student].[Enrollment_No]
+ AND [Group_student]='A'</t>
+  </si>
+  <si>
+    <t>TC027</t>
+  </si>
+  <si>
+    <t>Compare the Group of   student name=Kalyani K. obtained   Dashboard data of Powe BI dashoard Testing 27 Vs Database Query 27 data</t>
+  </si>
+  <si>
+    <t>TC028</t>
+  </si>
+  <si>
+    <t>Compare the Group of   student name=Sonia D. obtained   Dashboard data of Powe BI dashoard Testing 28 Vs Database Query 28 data</t>
+  </si>
+  <si>
+    <t>TC029</t>
+  </si>
+  <si>
+    <t>Compare the Monthly attendance of January , student name=Aditi M,. obtained   Dashboard data of Powe BI dashoard Testing 29 Vs Database Query 29 data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DECLARE @TotalPrice  nvarchar(100)
+Set @TotalPrice =(SELECT COUNT([Attendance]) 
+    FROM [POC2].[dbo].[dim_student],[POC2].[dbo].[Fact_Attendance]
+    WHERE [dim_student].[Enrollment_No]=[Fact_Attendance].[Enrollment_No] AND
+[Course_id]=20 AND [Subject_id]=112 AND[Fact_Attendance].[Enrollment_No] =22020007 AND [Attendance]='P' AND [MONTH]='January')
+DECLARE @TotalPrice1  nvarchar(100)
+Set @TotalPrice1 =(SELECT COUNT([Attendance]) 
+    FROM [POC2].[dbo].[dim_student],[POC2].[dbo].[Fact_Attendance]
+    WHERE [dim_student].[Enrollment_No]=[Fact_Attendance].[Enrollment_No] AND
+[Course_id]=20 AND [Subject_id]=112 AND[Fact_Attendance].[Enrollment_No] =22020007  AND [MONTH]='January')
+SELECT DISTINCT [MONTH],ROUND(CAST(((@TotalPrice)*100.0)/@TotalPrice1 AS FLOAT),2)
+FROM [POC2].[dbo].[Fact_Attendance]
+    WHERE [MONTH]='January'
+</t>
+  </si>
+  <si>
+    <t>TC030</t>
+  </si>
+  <si>
+    <t>Compare the Monthly attendance of February , student name=Aditi M.obtained   Dashboard data of Powe BI dashoard Testing 29 Vs Database Query 29 data</t>
+  </si>
+  <si>
+    <t>TC031</t>
+  </si>
+  <si>
+    <t>Compare the Monthly attendance of March , student name=Aditi M.obtained   Dashboard data of Powe BI dashoard Testing 31 Vs Database Query 31 data</t>
+  </si>
+  <si>
+    <t>TC032</t>
+  </si>
+  <si>
+    <t>Compare the Monthly attendance of April , student name=Aditi M.obtained   Dashboard data of Powe BI dashoard Testing 32 Vs Database Query 32 data</t>
+  </si>
+  <si>
+    <t>TC033</t>
+  </si>
+  <si>
+    <t>Compare the Monthly attendance ofMay, student name=Aditi M.obtained   Dashboard data of Powe BI dashoard Testing 33 Vs Database Query 33 data</t>
+  </si>
+  <si>
+    <t>TC034</t>
+  </si>
+  <si>
+    <t>Compare the Remark of  student name=Aditi M.obtained   Dashboard data of Powe BI dashoard Testing 34 Vs Database Query 34 data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT [Exam_Remark]
+    FROM [POC2].[dbo].[dim_student],[POC2].[dbo].[fact_exam_new]
+    WHERE [dim_student].[Enrollment_No]=[fact_exam_new].[Enrollment_No] AND
+[Course_id]=20 AND [Subject_id]=112 AND[fact_exam_new].[Enrollment_No] =22020007 </t>
+  </si>
+  <si>
+    <t>TC035</t>
+  </si>
+  <si>
+    <t>Compare the Table of  student Info name=Aditi M.obtained   Dashboard data of Powe BI dashoard Testing 35 Vs Database Query 35 data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECLARE @TotalPrice  nvarchar(100)
+Set @TotalPrice =(SELECT COUNT([Attendance]) 
+    FROM [POC2].[dbo].[dim_student],[POC2].[dbo].[Fact_Attendance]
+    WHERE [dim_student].[Enrollment_No]=[Fact_Attendance].[Enrollment_No] AND
+[Course_id]=20 AND [Subject_id]=112 AND[Fact_Attendance].[Enrollment_No] =22020007 AND [Attendance]='P')
+SELECT Distinct [Student_name],[Subject_name],[Marks_Obtained],[Total_Marks],ROUND(CAST(((@TotalPrice)*100.0)/150 AS FLOAT),2)AS 'Attendance Percentage',[Exam_Remark] as 'Remark',[Fact_Attendance].[Enrollment_No]
+       FROM [POC2].[dbo].[dim_student],[POC2].[dbo].[dim_subject]
+    ,[POC2].[dbo].[Fact_Attendance],[POC2].[dbo].[fact_exam_new],[POC2].[dbo].[dim_course]
+    WHERE [dim_student].[Enrollment_No]=[Fact_Attendance].[Enrollment_No] AND
+ [dim_student].[Enrollment_No]=[fact_exam_new].[Enrollment_No] AND
+[dim_course].[Course_id]=20 AND [dim_subject].[Subject_id]=112 AND [fact_exam_new].[Enrollment_No] =22020007 AND [sem]=1 AND [Marks_Obtained]=66;
+</t>
+  </si>
+  <si>
+    <t>TC037</t>
+  </si>
+  <si>
+    <t>Compare the Reason  for low attendance  student Info name=Aditi M.obtained   Dashboard data of Powe BI dashoard Testing 37 Vs Database Query 37 data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECLARE @TotalPrice nvarchar(100)
+SET @TotalPrice = (
+    SELECT COUNT(a.[Attendance]) 
+    FROM [POC2].[dbo].[dim_student] AS s, [POC2].[dbo].[Fact_Attendance] AS a
+    WHERE s.[Enrollment_No] = a.[Enrollment_No]
+    AND [Course_id] = 20
+    AND [Subject_id] = 112
+    AND a.[Enrollment_No] = 22020007
+    AND [Attendance] = 'P'
+    AND [MONTH] = 'February'
+)
+DECLARE @TotalPrice1 nvarchar(100)
+SET @TotalPrice1 = (
+    SELECT COUNT(a.[Attendance]) 
+    FROM [POC2].[dbo].[dim_student] AS s, [POC2].[dbo].[Fact_Attendance] AS a
+    WHERE s.[Enrollment_No] = a.[Enrollment_No]
+    AND [Course_id] = 20
+    AND [Subject_id] = 112
+    AND a.[Enrollment_No] = 22020007
+    AND [MONTH] = 'February'
+)
+SELECT DISTINCT [MONTH], ROUND(CAST(((@TotalPrice) * 100.0) / @TotalPrice1 AS FLOAT), 2)
+FROM [POC2].[dbo].[Fact_Attendance] AS a
+WHERE [MONTH] = 'February'
+</t>
+  </si>
+  <si>
+    <t>DECLARE @TotalPrice nvarchar(100)
+SET @TotalPrice = (
+    SELECT COUNT(a.[Attendance]) 
+    FROM [POC2].[dbo].[dim_student] AS s, [POC2].[dbo].[Fact_Attendance] AS a
+    WHERE s.[Enrollment_No] = a.[Enrollment_No]
+    AND [Course_id] = 20
+    AND [Subject_id] = 112
+    AND a.[Enrollment_No] = 22020007
+    AND [Attendance] = 'P'
+    AND [MONTH] = 'March'
+)
+DECLARE @TotalPrice1 nvarchar(100)
+SET @TotalPrice1 = (
+    SELECT COUNT(a.[Attendance]) 
+    FROM [POC2].[dbo].[dim_student] AS s, [POC2].[dbo].[Fact_Attendance] AS a
+    WHERE s.[Enrollment_No] = a.[Enrollment_No]
+    AND [Course_id] = 20
+    AND [Subject_id] = 112
+    AND a.[Enrollment_No] = 22020007
+    AND [MONTH] = 'March'
+)
+SELECT DISTINCT [MONTH], ROUND(CAST(((@TotalPrice) * 100.0) / @TotalPrice1 AS FLOAT), 2)
+FROM [POC2].[dbo].[Fact_Attendance] AS a
+WHERE [MONTH] = 'March'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECLARE @TotalPrice nvarchar(100)
+SET @TotalPrice = (
+    SELECT COUNT(a.[Attendance]) 
+    FROM [POC2].[dbo].[dim_student] AS s, [POC2].[dbo].[Fact_Attendance] AS a
+    WHERE s.[Enrollment_No] = a.[Enrollment_No]
+    AND [Course_id] = 20
+    AND [Subject_id] = 112
+    AND a.[Enrollment_No] = 22020007
+    AND [Attendance] = 'P'
+    AND [MONTH] = 'April'
+)
+DECLARE @TotalPrice1 nvarchar(100)
+SET @TotalPrice1 = (
+    SELECT COUNT(a.[Attendance]) 
+    FROM [POC2].[dbo].[dim_student] AS s, [POC2].[dbo].[Fact_Attendance] AS a
+    WHERE s.[Enrollment_No] = a.[Enrollment_No]
+    AND [Course_id] = 20
+    AND [Subject_id] = 112
+    AND a.[Enrollment_No] = 22020007
+    AND [MONTH] = 'April'
+)
+SELECT DISTINCT [MONTH], ROUND(CAST(((@TotalPrice) * 100.0) / @TotalPrice1 AS FLOAT), 2)
+FROM [POC2].[dbo].[Fact_Attendance] AS a
+WHERE [MONTH] = 'April'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECLARE @TotalPrice nvarchar(100)
+SET @TotalPrice = (
+    SELECT COUNT(a.[Attendance]) 
+    FROM [POC2].[dbo].[dim_student] AS s, [POC2].[dbo].[Fact_Attendance] AS a
+    WHERE s.[Enrollment_No] = a.[Enrollment_No]
+    AND [Course_id] = 20
+    AND [Subject_id] = 112
+    AND a.[Enrollment_No] = 22020007
+    AND [Attendance] = 'P'
+    AND [MONTH] = 'May'
+)
+DECLARE @TotalPrice1 nvarchar(100)
+SET @TotalPrice1 = (
+    SELECT COUNT(a.[Attendance]) 
+    FROM [POC2].[dbo].[dim_student] AS s, [POC2].[dbo].[Fact_Attendance] AS a
+    WHERE s.[Enrollment_No] = a.[Enrollment_No]
+    AND [Course_id] = 20
+    AND [Subject_id] = 112
+    AND a.[Enrollment_No] = 22020007
+    AND [MONTH] = 'May'
+)
+SELECT DISTINCT [MONTH], ROUND(CAST(((@TotalPrice) * 100.0) / @TotalPrice1 AS FLOAT), 2)
+FROM [POC2].[dbo].[Fact_Attendance] AS a
+WHERE [MONTH] = 'May'
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,12 +692,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -370,7 +882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -394,12 +906,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -425,35 +931,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -736,19 +1236,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="105.7109375" style="24" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" customWidth="1"/>
-    <col min="5" max="5" width="72.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="72.5703125" style="13" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -759,13 +1259,13 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -779,15 +1279,15 @@
       <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="24" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="11"/>
-      <c r="H2" s="19"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -796,15 +1296,15 @@
       <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>35</v>
+      <c r="C3" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="19"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -813,70 +1313,439 @@
       <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="19"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="22" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
